--- a/teacher_list.xlsx
+++ b/teacher_list.xlsx
@@ -5,17 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="926" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="Unspecified"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -31,7 +26,7 @@
     <t>SUBJECT</t>
   </si>
   <si>
-    <t>B.</t>
+    <t> B</t>
   </si>
   <si>
     <t>RAVINDRA</t>
@@ -58,7 +53,7 @@
     <t>PRATIHER</t>
   </si>
   <si>
-    <t> ME123 ME322</t>
+    <t>ME123 ME322</t>
   </si>
   <si>
     <t>KAUSHAL</t>
@@ -160,7 +155,7 @@
     <t>TIWARI</t>
   </si>
   <si>
-    <t>EE121 </t>
+    <t>EE121</t>
   </si>
   <si>
     <t>EE</t>
@@ -394,6 +389,13 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
+      <font>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFB7E1CD"/>
@@ -478,8 +480,8 @@
   </sheetPr>
   <dimension ref="A1:Z28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -489,6 +491,7 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1428571428571"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="13.9030612244898"/>
     <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.6734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
